--- a/hardware/modules/POWER/V1/Project Outputs for PWR_M_V1/PWR_M_V1.xlsx
+++ b/hardware/modules/POWER/V1/Project Outputs for PWR_M_V1/PWR_M_V1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>Comment</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LibRef</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>SMD-0805C</t>
   </si>
   <si>
-    <t>GCM21BR71E225KA73L</t>
-  </si>
-  <si>
     <t>81-GCM21BR71E225KA3L</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>C12, C13, C32, C33, C113, C313</t>
   </si>
   <si>
-    <t>GRM21BR60J226ME39L</t>
-  </si>
-  <si>
     <t>81-GRM21R60J226ME39L</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>SMD-0603C</t>
   </si>
   <si>
-    <t>GCJ188R71H104KA12D</t>
-  </si>
-  <si>
     <t>81-GCJ188R71H104KA2D</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>C28</t>
   </si>
   <si>
-    <t>GCM1885C2A220JA16D</t>
-  </si>
-  <si>
     <t>81-GCM1885C2A220J16D</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>C29</t>
   </si>
   <si>
-    <t>GCJ21BR71H105KA01L</t>
-  </si>
-  <si>
     <t>81-GCJ21BR71H105KA1L</t>
   </si>
   <si>
@@ -159,9 +141,6 @@
     <t>C212, C213</t>
   </si>
   <si>
-    <t>GCM21BR71H224KA37K</t>
-  </si>
-  <si>
     <t>81-GCM21BR71H224KA7K</t>
   </si>
   <si>
@@ -264,9 +243,6 @@
     <t>SMD-0603-RES</t>
   </si>
   <si>
-    <t>ERJ-3EKF1002V</t>
-  </si>
-  <si>
     <t>667-ERJ-3EKF1002V</t>
   </si>
   <si>
@@ -279,9 +255,6 @@
     <t>R11, R31</t>
   </si>
   <si>
-    <t>ERJ-PA3J104V</t>
-  </si>
-  <si>
     <t>667-ERJ-PA3J104V</t>
   </si>
   <si>
@@ -294,9 +267,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>ERJ-PA3F4702V</t>
-  </si>
-  <si>
     <t>667-ERJ-PA3F4702V</t>
   </si>
   <si>
@@ -309,9 +279,6 @@
     <t>R13, R33</t>
   </si>
   <si>
-    <t>ERJ-PA3F1502V</t>
-  </si>
-  <si>
     <t>667-ERJ-PA3F1502V</t>
   </si>
   <si>
@@ -324,9 +291,6 @@
     <t>SMD-0402-RES</t>
   </si>
   <si>
-    <t>ERJ-2RKF1003X</t>
-  </si>
-  <si>
     <t>667-ERJ-2RKF1003X</t>
   </si>
   <si>
@@ -339,9 +303,6 @@
     <t>R22</t>
   </si>
   <si>
-    <t>ERJ-2RKF9101X</t>
-  </si>
-  <si>
     <t>667-ERJ-2RKF9101X</t>
   </si>
   <si>
@@ -354,9 +315,6 @@
     <t>R32</t>
   </si>
   <si>
-    <t>ERJ-3EKF7872V</t>
-  </si>
-  <si>
     <t>667-ERJ-3EKF7872V</t>
   </si>
   <si>
@@ -367,9 +325,6 @@
   </si>
   <si>
     <t>R41</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF2001V</t>
   </si>
   <si>
     <t>667-ERJ-3EKF2001V</t>
@@ -745,7 +700,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -753,11 +708,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <cols>
-    <col min="1" max="6" width="18.4375" customWidth="1"/>
-    <col min="7" max="7" width="15.48046875" customWidth="1"/>
+    <col min="1" max="5" width="18.4375" customWidth="1"/>
+    <col min="6" max="6" width="15.48046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -776,602 +731,521 @@
       <c r="F1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="40" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A2" s="41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="C2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="D2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="43">
+        <v>4</v>
+      </c>
+      <c r="F2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="42" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="43">
-        <v>4</v>
-      </c>
-      <c r="G2" s="42" t="s">
+      <c r="B3" s="45" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="D3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="46">
+        <v>6</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="45" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="45" t="s">
+      <c r="B4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="46">
-        <v>6</v>
-      </c>
-      <c r="G3" s="45" t="s">
+      <c r="C4" s="45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="D4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="E4" s="46">
+        <v>5</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="45" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="B5" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="46">
-        <v>5</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="C5" s="45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="E5" s="46">
+        <v>1</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="45" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A6" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="B6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="46">
-        <v>1</v>
-      </c>
-      <c r="G5" s="45" t="s">
+      <c r="D6" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="46">
+        <v>1</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A6" s="44" t="s">
+    <row r="7" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B7" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="45" t="s">
+      <c r="D7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="46">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="46">
-        <v>1</v>
-      </c>
-      <c r="G6" s="45" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A8" s="44" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="B8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="D8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="E8" s="46">
+        <v>2</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="45" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="46">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45" t="s">
+      <c r="B9" s="45" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="D9" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="46">
+        <v>2</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="45" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1">
+      <c r="A10" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="46">
+      <c r="B10" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="46">
+        <v>1</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="46">
         <v>2</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A9" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="46">
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:6" ht="27" customHeight="1">
+      <c r="A12" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="46">
+        <v>1</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" customHeight="1">
+      <c r="A13" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="46">
         <v>2</v>
       </c>
-      <c r="G9" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="27" customHeight="1">
-      <c r="A10" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="46">
-        <v>1</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="46">
-        <v>2</v>
-      </c>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" ht="27" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="F13" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="45" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1">
+      <c r="A14" s="44" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="46">
-        <v>1</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" customHeight="1">
-      <c r="A13" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="46">
-        <v>2</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27" customHeight="1">
-      <c r="A14" s="44" t="s">
-        <v>64</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="46">
+        <v>1</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="46">
+        <v>1</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="45" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="27" customHeight="1">
+      <c r="A16" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="46">
-        <v>1</v>
-      </c>
-      <c r="G14" s="45" t="s">
+      <c r="B16" s="45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="27" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="D16" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="E16" s="46">
+        <v>1</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="45" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1">
+      <c r="A17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="46">
-        <v>1</v>
-      </c>
-      <c r="G15" s="45" t="s">
+      <c r="B17" s="45" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="27" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="D17" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="E17" s="46">
+        <v>3</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="45" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="27" customHeight="1">
+      <c r="A18" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="46">
-        <v>1</v>
-      </c>
-      <c r="G16" s="45" t="s">
+      <c r="B18" s="45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="D18" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="46">
+        <v>2</v>
+      </c>
+      <c r="F18" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="45" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="27" customHeight="1">
+      <c r="A19" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="B19" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="C19" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="46">
-        <v>3</v>
-      </c>
-      <c r="G17" s="45" t="s">
+      <c r="D19" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="46">
+        <v>1</v>
+      </c>
+      <c r="F19" s="45" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" customHeight="1">
-      <c r="A18" s="44" t="s">
+    <row r="20" spans="1:6" ht="27" customHeight="1">
+      <c r="A20" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B20" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="D20" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="46">
+        <v>2</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="46">
+    </row>
+    <row r="21" spans="1:6" ht="27" customHeight="1">
+      <c r="A21" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="46">
+        <v>1</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" customHeight="1">
+      <c r="A22" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="46">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="40.5" customHeight="1">
+      <c r="A23" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" customHeight="1">
+      <c r="A24" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="46">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="54" customHeight="1">
+      <c r="A25" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="46">
         <v>2</v>
       </c>
-      <c r="G18" s="45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" customHeight="1">
-      <c r="A19" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="46">
-        <v>1</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="27" customHeight="1">
-      <c r="A20" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="46">
-        <v>2</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="27" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="46">
-        <v>1</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="27" customHeight="1">
-      <c r="A22" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="46">
-        <v>1</v>
-      </c>
-      <c r="G22" s="45" t="s">
+      <c r="F25" s="45" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A23" s="44" t="s">
+    <row r="26" spans="1:6" ht="27" customHeight="1">
+      <c r="A26" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B26" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C26" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="45" t="s">
+      <c r="D26" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="46">
-        <v>1</v>
-      </c>
-      <c r="G23" s="45" t="s">
+      <c r="E26" s="46">
+        <v>1</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" customHeight="1">
-      <c r="A24" s="44" t="s">
+    <row r="27" spans="1:6" ht="27" customHeight="1">
+      <c r="A27" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B27" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C27" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="D27" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="F24" s="46">
-        <v>1</v>
-      </c>
-      <c r="G24" s="45" t="s">
+      <c r="E27" s="46">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="54" customHeight="1">
-      <c r="A25" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="46">
-        <v>2</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="27" customHeight="1">
-      <c r="A26" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="46">
-        <v>1</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="27" customHeight="1">
-      <c r="A27" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="46">
-        <v>1</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
